--- a/biology/Médecine/Romain_Vigouroux/Romain_Vigouroux.xlsx
+++ b/biology/Médecine/Romain_Vigouroux/Romain_Vigouroux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Gabriel Romain Vigouroux, né le 4 juillet 1831 à Molompize dans le Cantal[1] et mort le 19 janvier 1911 dans le 9e arrondissement de Paris[2], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Gabriel Romain Vigouroux, né le 4 juillet 1831 à Molompize dans le Cantal et mort le 19 janvier 1911 dans le 9e arrondissement de Paris, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu comme le successeur de Guillaume Duchenne dans le service d'électrothérapie de la Salpêtrière. Il figure avec l'un de ses appareils dans le tableau de Brouillet Une leçon clinique à la Salpêtrière.
-Intéressé par la métalloscopie, la métallothérapie, les esthésiogènes, il met au point des traitements électriques réguliers, qu'il applique en série, principalement chez les patients hystériques, le nombre de patients traités pouvant dépasser cinquante par jour[3],[4].
+Intéressé par la métalloscopie, la métallothérapie, les esthésiogènes, il met au point des traitements électriques réguliers, qu'il applique en série, principalement chez les patients hystériques, le nombre de patients traités pouvant dépasser cinquante par jour,.
 Son frère, Auguste Vigouroux, est l'auteur d'un ouvrage sur la contagion mentale.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sur l'antagonisme de la fièvre intermittente et des tubercules pulmonaires, Rignoux, 1858.
 La Médecine et le monopole, E. Dentu, 1862
